--- a/artfynd/A 42622-2022 artfynd.xlsx
+++ b/artfynd/A 42622-2022 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130667655</v>
       </c>
       <c r="B2" t="n">
-        <v>93129</v>
+        <v>93133</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
